--- a/output/0.xlsx
+++ b/output/0.xlsx
@@ -14,249 +14,444 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>AirportCode</t>
-  </si>
-  <si>
-    <t>ServiceCode</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>+45kgs</t>
-  </si>
-  <si>
-    <t>+100kgs</t>
-  </si>
-  <si>
-    <t>+300kgs</t>
-  </si>
-  <si>
-    <t>+500kgs</t>
-  </si>
-  <si>
-    <t>+1000kgs</t>
-  </si>
-  <si>
-    <t>Abidjan</t>
-  </si>
-  <si>
-    <t>Albuquerque</t>
-  </si>
-  <si>
-    <t>Abuja</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Accra</t>
-  </si>
-  <si>
-    <t>Adana</t>
-  </si>
-  <si>
-    <t>Izmir</t>
-  </si>
-  <si>
-    <t>Addis Ababa</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Almaty</t>
-  </si>
-  <si>
-    <t>Algiers</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>Amman</t>
-  </si>
-  <si>
-    <t>Amsterdam</t>
-  </si>
-  <si>
-    <t>Stockholm</t>
-  </si>
-  <si>
-    <t>Asuncion</t>
-  </si>
-  <si>
-    <t>Athens</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>Amritsar</t>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Belgrade</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Beirut</t>
-  </si>
-  <si>
-    <t>Baghdad</t>
-  </si>
-  <si>
-    <t>Birmingham-Shuttlesworth</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Bilbao</t>
-  </si>
-  <si>
-    <t>Billund</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Nashville</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Bogota</t>
-  </si>
-  <si>
-    <t>ABJ</t>
-  </si>
-  <si>
-    <t>ABQ</t>
-  </si>
-  <si>
-    <t>ABV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="146">
+  <si>
+    <t>Origin Code</t>
+  </si>
+  <si>
+    <t>DestinationCode</t>
+  </si>
+  <si>
+    <t>RouteSegment</t>
+  </si>
+  <si>
+    <t>PriceClass</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>AMM</t>
+  </si>
+  <si>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>CAI</t>
+  </si>
+  <si>
+    <t>DMM</t>
+  </si>
+  <si>
+    <t>DOH</t>
+  </si>
+  <si>
+    <t>DWC</t>
+  </si>
+  <si>
+    <t>DXB</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>JED</t>
+  </si>
+  <si>
+    <t>KWI</t>
+  </si>
+  <si>
+    <t>MCT</t>
+  </si>
+  <si>
+    <t>RUH</t>
+  </si>
+  <si>
+    <t>SHJ</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>CMB</t>
+  </si>
+  <si>
+    <t>COK</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>ISB</t>
+  </si>
+  <si>
+    <t>KHI</t>
+  </si>
+  <si>
+    <t>LHE</t>
+  </si>
+  <si>
+    <t>MAA</t>
+  </si>
+  <si>
+    <t>TRV</t>
+  </si>
+  <si>
+    <t>CMN</t>
+  </si>
+  <si>
+    <t>MLE</t>
+  </si>
+  <si>
+    <t>SEZ</t>
+  </si>
+  <si>
+    <t>JNB</t>
+  </si>
+  <si>
+    <t>NBO</t>
+  </si>
+  <si>
+    <t>TLV</t>
   </si>
   <si>
     <t>ABZ</t>
   </si>
   <si>
-    <t>ACC</t>
-  </si>
-  <si>
-    <t>ADA</t>
-  </si>
-  <si>
-    <t>ADB</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>AGP</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t>ALG</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>AMM</t>
-  </si>
-  <si>
     <t>AMS</t>
   </si>
   <si>
-    <t>ARN</t>
-  </si>
-  <si>
-    <t>ASU</t>
-  </si>
-  <si>
     <t>ATH</t>
   </si>
   <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>BRU</t>
+  </si>
+  <si>
+    <t>CDG</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>DUB</t>
+  </si>
+  <si>
+    <t>DUS</t>
+  </si>
+  <si>
+    <t>FCO</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GVA</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>MUC</t>
+  </si>
+  <si>
+    <t>MXP</t>
+  </si>
+  <si>
+    <t>NCE</t>
+  </si>
+  <si>
+    <t>ORK</t>
+  </si>
+  <si>
+    <t>OSL</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>SVO</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>ZRH</t>
+  </si>
+  <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>ATQ</t>
-  </si>
-  <si>
-    <t>AUH</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>BCN</t>
-  </si>
-  <si>
-    <t>BEG</t>
-  </si>
-  <si>
-    <t>BER</t>
-  </si>
-  <si>
-    <t>BEY</t>
-  </si>
-  <si>
-    <t>BGW</t>
-  </si>
-  <si>
-    <t>BHM</t>
-  </si>
-  <si>
-    <t>BHX</t>
-  </si>
-  <si>
-    <t>BIO</t>
-  </si>
-  <si>
-    <t>BLL</t>
-  </si>
-  <si>
-    <t>BLQ</t>
-  </si>
-  <si>
-    <t>BLR</t>
-  </si>
-  <si>
-    <t>BNA</t>
-  </si>
-  <si>
-    <t>BOD</t>
-  </si>
-  <si>
-    <t>BOG</t>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>IAD</t>
+  </si>
+  <si>
+    <t>IAH</t>
+  </si>
+  <si>
+    <t>JFK</t>
+  </si>
+  <si>
+    <t>LCK</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>AUH-BAH</t>
+  </si>
+  <si>
+    <t>AUH-CAI</t>
+  </si>
+  <si>
+    <t>AUH-DWC</t>
+  </si>
+  <si>
+    <t>AUH-DXB</t>
+  </si>
+  <si>
+    <t>AUH-IST</t>
+  </si>
+  <si>
+    <t>AUH-RUH</t>
+  </si>
+  <si>
+    <t>AUH-SHJ</t>
+  </si>
+  <si>
+    <t>AUH-BLR</t>
+  </si>
+  <si>
+    <t>AUH-BOM</t>
+  </si>
+  <si>
+    <t>AUH-CMB</t>
+  </si>
+  <si>
+    <t>AUH-COK</t>
+  </si>
+  <si>
+    <t>AUH-DAC</t>
+  </si>
+  <si>
+    <t>AUH-DEL</t>
+  </si>
+  <si>
+    <t>AUH-HYD</t>
+  </si>
+  <si>
+    <t>AUH-ISB</t>
+  </si>
+  <si>
+    <t>AUH-KHI</t>
+  </si>
+  <si>
+    <t>AUH-LHE</t>
+  </si>
+  <si>
+    <t>AUH-MAA</t>
+  </si>
+  <si>
+    <t>AUH-CMN</t>
+  </si>
+  <si>
+    <t>AUH-MLE</t>
+  </si>
+  <si>
+    <t>AUH-SEZ</t>
+  </si>
+  <si>
+    <t>AUH-JNB</t>
+  </si>
+  <si>
+    <t>AUH-NBO</t>
+  </si>
+  <si>
+    <t>AUH-TLV</t>
+  </si>
+  <si>
+    <t>AUH-AMS</t>
+  </si>
+  <si>
+    <t>AUH-ATH</t>
+  </si>
+  <si>
+    <t>AUH-BCN</t>
+  </si>
+  <si>
+    <t>AUH-BRU</t>
+  </si>
+  <si>
+    <t>AUH-CDG</t>
+  </si>
+  <si>
+    <t>AMS-CPH</t>
+  </si>
+  <si>
+    <t>AUH-DUB</t>
+  </si>
+  <si>
+    <t>FRA-DUS</t>
+  </si>
+  <si>
+    <t>AUH-FCO</t>
+  </si>
+  <si>
+    <t>AUH-FRA</t>
+  </si>
+  <si>
+    <t>AUH-GVA</t>
+  </si>
+  <si>
+    <t>MUC-HAM</t>
+  </si>
+  <si>
+    <t>AUH-LHR</t>
+  </si>
+  <si>
+    <t>AUH-MAD</t>
+  </si>
+  <si>
+    <t>AUH-MAN</t>
+  </si>
+  <si>
+    <t>AUH-MUC</t>
+  </si>
+  <si>
+    <t>AUH-MXP</t>
+  </si>
+  <si>
+    <t>AUH-NCE</t>
+  </si>
+  <si>
+    <t>AMS-OSL</t>
+  </si>
+  <si>
+    <t>MUC-STR</t>
+  </si>
+  <si>
+    <t>AUH-SVO</t>
+  </si>
+  <si>
+    <t>AUH-VIE</t>
+  </si>
+  <si>
+    <t>AUH-ZRH</t>
+  </si>
+  <si>
+    <t>ORD-ATL</t>
+  </si>
+  <si>
+    <t>JFK-ATL</t>
+  </si>
+  <si>
+    <t>ORD-BOS</t>
+  </si>
+  <si>
+    <t>AUH-IAD</t>
+  </si>
+  <si>
+    <t>ORD-IAH</t>
+  </si>
+  <si>
+    <t>AUH-JFK</t>
+  </si>
+  <si>
+    <t>ORD-LCK</t>
+  </si>
+  <si>
+    <t>AUH-ORDAUH-YYZ</t>
   </si>
   <si>
     <t>GCR</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>160.00160.00</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>7.60</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>4.904.90</t>
   </si>
 </sst>
 </file>
@@ -614,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,1119 +852,2041 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2">
-        <v>229.6</v>
-      </c>
-      <c r="E2">
-        <v>37.2</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
       </c>
       <c r="F2">
-        <v>14.7</v>
+        <v>8.5</v>
       </c>
       <c r="G2">
-        <v>14.2</v>
+        <v>5.1</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>4.1</v>
       </c>
       <c r="I2">
-        <v>13.7</v>
-      </c>
-      <c r="J2">
-        <v>13.4</v>
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>242.4</v>
-      </c>
-      <c r="E3">
-        <v>39.4</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
       </c>
       <c r="F3">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>6.1</v>
       </c>
       <c r="H3">
-        <v>14.8</v>
+        <v>5.1</v>
       </c>
       <c r="I3">
-        <v>14.5</v>
-      </c>
-      <c r="J3">
-        <v>14.2</v>
+        <v>4.1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>218.4</v>
-      </c>
-      <c r="E4">
-        <v>35.2</v>
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="G4">
-        <v>13.5</v>
+        <v>5.1</v>
       </c>
       <c r="H4">
-        <v>13.3</v>
+        <v>4.1</v>
       </c>
       <c r="I4">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>12.7</v>
+        <v>3.1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>149.6</v>
-      </c>
-      <c r="E5">
-        <v>23.2</v>
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
       </c>
       <c r="F5">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G5">
-        <v>9.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>4.1</v>
       </c>
       <c r="I5">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J5">
-        <v>8.4</v>
+        <v>3.1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6">
-        <v>250.4</v>
-      </c>
-      <c r="E6">
-        <v>40.8</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="G6">
-        <v>15.5</v>
+        <v>5.1</v>
       </c>
       <c r="H6">
-        <v>15.3</v>
+        <v>4.1</v>
       </c>
       <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>14.7</v>
+        <v>3.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7">
-        <v>164</v>
-      </c>
-      <c r="E7">
-        <v>25.7</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
       </c>
       <c r="F7">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="G7">
-        <v>10.1</v>
+        <v>5.1</v>
       </c>
       <c r="H7">
-        <v>9.9</v>
+        <v>4.1</v>
       </c>
       <c r="I7">
-        <v>9.6</v>
-      </c>
-      <c r="J7">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <v>164</v>
-      </c>
-      <c r="E8">
-        <v>25.7</v>
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
       </c>
       <c r="F8">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="G8">
-        <v>10.1</v>
+        <v>5.1</v>
       </c>
       <c r="H8">
-        <v>9.9</v>
+        <v>4.1</v>
       </c>
       <c r="I8">
-        <v>9.6</v>
-      </c>
-      <c r="J8">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9">
-        <v>280.8</v>
-      </c>
-      <c r="E9">
-        <v>46.15</v>
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
       </c>
       <c r="F9">
-        <v>17.9</v>
+        <v>8.5</v>
       </c>
       <c r="G9">
-        <v>17.4</v>
+        <v>5.1</v>
       </c>
       <c r="H9">
-        <v>17.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9">
-        <v>16.9</v>
-      </c>
-      <c r="J9">
-        <v>16.6</v>
+        <v>3.1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
-      <c r="D10">
-        <v>162.4</v>
-      </c>
-      <c r="E10">
-        <v>25.4</v>
+      <c r="D10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
       </c>
       <c r="F10">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="H10">
-        <v>9.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="I10">
-        <v>9.5</v>
-      </c>
-      <c r="J10">
-        <v>9.199999999999999</v>
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11">
-        <v>146.4</v>
-      </c>
-      <c r="E11">
-        <v>22.6</v>
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
       </c>
       <c r="F11">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="H11">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="I11">
-        <v>8.5</v>
-      </c>
-      <c r="J11">
-        <v>8.199999999999999</v>
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12">
-        <v>224.8</v>
-      </c>
-      <c r="E12">
-        <v>36.35</v>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
       </c>
       <c r="F12">
-        <v>14.4</v>
+        <v>8.5</v>
       </c>
       <c r="G12">
-        <v>13.9</v>
+        <v>5.1</v>
       </c>
       <c r="H12">
-        <v>13.7</v>
+        <v>4.1</v>
       </c>
       <c r="I12">
-        <v>13.4</v>
-      </c>
-      <c r="J12">
-        <v>13.1</v>
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13">
-        <v>103.2</v>
-      </c>
-      <c r="E13">
-        <v>15.05</v>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
       </c>
       <c r="F13">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="G13">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="H13">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
       <c r="I13">
-        <v>5.8</v>
-      </c>
-      <c r="J13">
-        <v>5.5</v>
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14">
-        <v>151.2</v>
-      </c>
-      <c r="E14">
-        <v>23.45</v>
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
       </c>
       <c r="F14">
-        <v>9.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="G14">
-        <v>9.300000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="H14">
-        <v>9.1</v>
+        <v>4.1</v>
       </c>
       <c r="I14">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J14">
-        <v>8.5</v>
+        <v>3.1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15">
-        <v>159.2</v>
-      </c>
-      <c r="E15">
-        <v>24.85</v>
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
       </c>
       <c r="F15">
-        <v>10.3</v>
+        <v>8.5</v>
       </c>
       <c r="G15">
-        <v>9.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="H15">
-        <v>9.6</v>
+        <v>4.1</v>
       </c>
       <c r="I15">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J15">
-        <v>9</v>
+        <v>3.1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16">
-        <v>141.6</v>
-      </c>
-      <c r="E16">
-        <v>21.8</v>
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
       </c>
       <c r="F16">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G16">
-        <v>8.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H16">
-        <v>8.5</v>
+        <v>4.1</v>
       </c>
       <c r="I16">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J16">
-        <v>7.9</v>
+        <v>3.1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17">
-        <v>260</v>
-      </c>
-      <c r="E17">
-        <v>42.5</v>
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
       </c>
       <c r="F17">
-        <v>16.6</v>
+        <v>8.5</v>
       </c>
       <c r="G17">
-        <v>16.1</v>
+        <v>5.1</v>
       </c>
       <c r="H17">
-        <v>15.9</v>
+        <v>4.1</v>
       </c>
       <c r="I17">
-        <v>15.6</v>
-      </c>
-      <c r="J17">
-        <v>15.3</v>
+        <v>3.1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18">
-        <v>164</v>
-      </c>
-      <c r="E18">
-        <v>25.7</v>
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
       </c>
       <c r="F18">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="G18">
-        <v>10.1</v>
+        <v>5.1</v>
       </c>
       <c r="H18">
-        <v>9.9</v>
+        <v>4.1</v>
       </c>
       <c r="I18">
-        <v>9.6</v>
-      </c>
-      <c r="J18">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19">
-        <v>184.8</v>
-      </c>
-      <c r="E19">
-        <v>29.35</v>
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
       </c>
       <c r="F19">
-        <v>11.9</v>
+        <v>8.5</v>
       </c>
       <c r="G19">
-        <v>11.4</v>
+        <v>5.1</v>
       </c>
       <c r="H19">
-        <v>11.2</v>
+        <v>4.1</v>
       </c>
       <c r="I19">
-        <v>10.9</v>
-      </c>
-      <c r="J19">
-        <v>10.6</v>
+        <v>3.1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20">
-        <v>127.2</v>
-      </c>
-      <c r="E20">
-        <v>19.25</v>
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
       </c>
       <c r="F20">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="G20">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="H20">
-        <v>7.6</v>
+        <v>4.1</v>
       </c>
       <c r="I20">
-        <v>7.3</v>
-      </c>
-      <c r="J20">
-        <v>7</v>
+        <v>3.1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21">
-        <v>171.2</v>
-      </c>
-      <c r="E21">
-        <v>26.95</v>
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
       </c>
       <c r="F21">
-        <v>11.05</v>
+        <v>8.5</v>
       </c>
       <c r="G21">
-        <v>10.55</v>
+        <v>5.1</v>
       </c>
       <c r="H21">
-        <v>10.35</v>
+        <v>4.1</v>
       </c>
       <c r="I21">
-        <v>10.05</v>
-      </c>
-      <c r="J21">
-        <v>9.75</v>
+        <v>3.1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22">
-        <v>215.2</v>
-      </c>
-      <c r="E22">
-        <v>34.65</v>
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
       </c>
       <c r="F22">
-        <v>13.8</v>
+        <v>8.5</v>
       </c>
       <c r="G22">
-        <v>13.3</v>
+        <v>5.1</v>
       </c>
       <c r="H22">
-        <v>13.1</v>
+        <v>4.1</v>
       </c>
       <c r="I22">
-        <v>12.8</v>
-      </c>
-      <c r="J22">
-        <v>12.5</v>
+        <v>3.1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23">
-        <v>176.8</v>
-      </c>
-      <c r="E23">
-        <v>27.95</v>
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
       </c>
       <c r="F23">
-        <v>11.4</v>
+        <v>8.5</v>
       </c>
       <c r="G23">
-        <v>10.9</v>
+        <v>5.1</v>
       </c>
       <c r="H23">
-        <v>10.7</v>
+        <v>4.1</v>
       </c>
       <c r="I23">
-        <v>10.4</v>
-      </c>
-      <c r="J23">
-        <v>10.1</v>
+        <v>3.1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24">
-        <v>164</v>
-      </c>
-      <c r="E24">
-        <v>25.7</v>
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
       </c>
       <c r="F24">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="G24">
-        <v>10.1</v>
+        <v>5.1</v>
       </c>
       <c r="H24">
-        <v>9.9</v>
+        <v>4.1</v>
       </c>
       <c r="I24">
-        <v>9.6</v>
-      </c>
-      <c r="J24">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25">
-        <v>136.8</v>
-      </c>
-      <c r="E25">
-        <v>20.95</v>
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
       </c>
       <c r="F25">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="G25">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="H25">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="I25">
-        <v>7.9</v>
-      </c>
-      <c r="J25">
-        <v>7.6</v>
+        <v>3.1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26">
-        <v>171.2</v>
-      </c>
-      <c r="E26">
-        <v>26.95</v>
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
       </c>
       <c r="F26">
-        <v>11.05</v>
+        <v>8.5</v>
       </c>
       <c r="G26">
-        <v>10.55</v>
+        <v>5.1</v>
       </c>
       <c r="H26">
-        <v>10.35</v>
+        <v>4.1</v>
       </c>
       <c r="I26">
-        <v>10.05</v>
-      </c>
-      <c r="J26">
-        <v>9.75</v>
+        <v>3.1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27">
-        <v>171.2</v>
-      </c>
-      <c r="E27">
-        <v>26.95</v>
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
       </c>
       <c r="F27">
-        <v>11.05</v>
+        <v>8.5</v>
       </c>
       <c r="G27">
-        <v>10.55</v>
+        <v>5.1</v>
       </c>
       <c r="H27">
-        <v>10.35</v>
+        <v>4.1</v>
       </c>
       <c r="I27">
-        <v>10.05</v>
-      </c>
-      <c r="J27">
-        <v>9.75</v>
+        <v>3.1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28">
-        <v>215.2</v>
-      </c>
-      <c r="E28">
-        <v>34.65</v>
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
       </c>
       <c r="F28">
-        <v>13.8</v>
+        <v>8.5</v>
       </c>
       <c r="G28">
-        <v>13.3</v>
+        <v>5.1</v>
       </c>
       <c r="H28">
-        <v>13.1</v>
+        <v>4.1</v>
       </c>
       <c r="I28">
-        <v>12.8</v>
-      </c>
-      <c r="J28">
-        <v>12.5</v>
+        <v>3.1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29">
-        <v>202.4</v>
-      </c>
-      <c r="E29">
-        <v>32.4</v>
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" t="s">
+        <v>132</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="G29">
-        <v>12.5</v>
+        <v>9.1</v>
       </c>
       <c r="H29">
-        <v>12.3</v>
+        <v>8.1</v>
       </c>
       <c r="I29">
-        <v>12</v>
-      </c>
-      <c r="J29">
-        <v>11.7</v>
+        <v>7.6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30">
-        <v>164</v>
-      </c>
-      <c r="E30">
-        <v>25.7</v>
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
       </c>
       <c r="F30">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="G30">
-        <v>10.1</v>
+        <v>5.1</v>
       </c>
       <c r="H30">
-        <v>9.9</v>
+        <v>4.1</v>
       </c>
       <c r="I30">
-        <v>9.6</v>
-      </c>
-      <c r="J30">
-        <v>9.300000000000001</v>
+        <v>3.1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31">
-        <v>148</v>
-      </c>
-      <c r="E31">
-        <v>22.9</v>
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
       </c>
       <c r="F31">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="G31">
         <v>9.1</v>
       </c>
       <c r="H31">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="I31">
-        <v>8.6</v>
-      </c>
-      <c r="J31">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32">
-        <v>164</v>
-      </c>
-      <c r="E32">
-        <v>25.7</v>
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
       </c>
       <c r="F32">
-        <v>10.6</v>
+        <v>18.5</v>
       </c>
       <c r="G32">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="H32">
-        <v>9.9</v>
+        <v>8.1</v>
       </c>
       <c r="I32">
-        <v>9.6</v>
-      </c>
-      <c r="J32">
-        <v>9.300000000000001</v>
+        <v>7.6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33">
-        <v>103.2</v>
-      </c>
-      <c r="E33">
-        <v>15.05</v>
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
       </c>
       <c r="F33">
-        <v>6.8</v>
+        <v>18.5</v>
       </c>
       <c r="G33">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="H33">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="I33">
-        <v>5.8</v>
-      </c>
-      <c r="J33">
-        <v>5.5</v>
+        <v>7.6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34">
-        <v>215.2</v>
-      </c>
-      <c r="E34">
-        <v>34.65</v>
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
       </c>
       <c r="F34">
-        <v>13.8</v>
+        <v>18.5</v>
       </c>
       <c r="G34">
-        <v>13.3</v>
+        <v>9.1</v>
       </c>
       <c r="H34">
-        <v>13.1</v>
+        <v>8.1</v>
       </c>
       <c r="I34">
-        <v>12.8</v>
-      </c>
-      <c r="J34">
-        <v>12.5</v>
+        <v>7.6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35">
-        <v>164</v>
-      </c>
-      <c r="E35">
-        <v>25.7</v>
-      </c>
-      <c r="F35">
-        <v>10.6</v>
-      </c>
-      <c r="G35">
-        <v>10.1</v>
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
       </c>
       <c r="H35">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
       <c r="I35">
-        <v>9.6</v>
-      </c>
-      <c r="J35">
-        <v>9.300000000000001</v>
+        <v>6.1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36">
-        <v>271.2</v>
-      </c>
-      <c r="E36">
-        <v>44.45</v>
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
       </c>
       <c r="F36">
-        <v>17.3</v>
+        <v>9.5</v>
       </c>
       <c r="G36">
-        <v>16.8</v>
+        <v>5.1</v>
       </c>
       <c r="H36">
-        <v>16.6</v>
+        <v>4.9</v>
       </c>
       <c r="I36">
-        <v>16.3</v>
-      </c>
-      <c r="J36">
-        <v>16</v>
+        <v>4.6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37">
+        <v>9.5</v>
+      </c>
+      <c r="G37">
+        <v>5.1</v>
+      </c>
+      <c r="H37">
+        <v>4.9</v>
+      </c>
+      <c r="I37">
+        <v>4.6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38">
+        <v>9.5</v>
+      </c>
+      <c r="G38">
+        <v>5.1</v>
+      </c>
+      <c r="H38">
+        <v>4.9</v>
+      </c>
+      <c r="I38">
+        <v>4.6</v>
+      </c>
+      <c r="J38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39">
+        <v>9.5</v>
+      </c>
+      <c r="G39">
+        <v>5.1</v>
+      </c>
+      <c r="H39">
+        <v>4.9</v>
+      </c>
+      <c r="I39">
+        <v>4.6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40">
+        <v>9.5</v>
+      </c>
+      <c r="G40">
+        <v>5.1</v>
+      </c>
+      <c r="H40">
+        <v>4.9</v>
+      </c>
+      <c r="I40">
+        <v>4.6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>7.1</v>
+      </c>
+      <c r="I41">
+        <v>6.1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42">
+        <v>9.5</v>
+      </c>
+      <c r="G42">
+        <v>5.1</v>
+      </c>
+      <c r="H42">
+        <v>4.9</v>
+      </c>
+      <c r="I42">
+        <v>4.6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43">
+        <v>7.1</v>
+      </c>
+      <c r="I43">
+        <v>6.1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44">
+        <v>9.5</v>
+      </c>
+      <c r="G44">
+        <v>5.1</v>
+      </c>
+      <c r="H44">
+        <v>4.9</v>
+      </c>
+      <c r="I44">
+        <v>4.6</v>
+      </c>
+      <c r="J44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45">
+        <v>9.5</v>
+      </c>
+      <c r="G45">
+        <v>5.1</v>
+      </c>
+      <c r="H45">
+        <v>4.9</v>
+      </c>
+      <c r="I45">
+        <v>4.6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46">
+        <v>9.5</v>
+      </c>
+      <c r="G46">
+        <v>5.1</v>
+      </c>
+      <c r="H46">
+        <v>4.9</v>
+      </c>
+      <c r="I46">
+        <v>4.6</v>
+      </c>
+      <c r="J46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47">
+        <v>9.5</v>
+      </c>
+      <c r="G47">
+        <v>5.1</v>
+      </c>
+      <c r="H47">
+        <v>4.9</v>
+      </c>
+      <c r="I47">
+        <v>4.6</v>
+      </c>
+      <c r="J47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48">
+        <v>7.1</v>
+      </c>
+      <c r="I48">
+        <v>6.1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49">
+        <v>9.5</v>
+      </c>
+      <c r="G49">
+        <v>5.1</v>
+      </c>
+      <c r="H49">
+        <v>4.9</v>
+      </c>
+      <c r="I49">
+        <v>4.6</v>
+      </c>
+      <c r="J49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50">
+        <v>9.5</v>
+      </c>
+      <c r="G50">
+        <v>5.1</v>
+      </c>
+      <c r="H50">
+        <v>4.9</v>
+      </c>
+      <c r="I50">
+        <v>4.6</v>
+      </c>
+      <c r="J50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51">
+        <v>9.5</v>
+      </c>
+      <c r="G51">
+        <v>5.1</v>
+      </c>
+      <c r="H51">
+        <v>4.9</v>
+      </c>
+      <c r="I51">
+        <v>4.6</v>
+      </c>
+      <c r="J51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52">
+        <v>9.5</v>
+      </c>
+      <c r="G52">
+        <v>5.1</v>
+      </c>
+      <c r="H52">
+        <v>4.9</v>
+      </c>
+      <c r="I52">
+        <v>4.6</v>
+      </c>
+      <c r="J52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53">
+        <v>9.5</v>
+      </c>
+      <c r="G53">
+        <v>5.1</v>
+      </c>
+      <c r="H53">
+        <v>4.9</v>
+      </c>
+      <c r="I53">
+        <v>4.6</v>
+      </c>
+      <c r="J53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54">
+        <v>9.5</v>
+      </c>
+      <c r="G54">
+        <v>5.1</v>
+      </c>
+      <c r="H54">
+        <v>4.9</v>
+      </c>
+      <c r="I54">
+        <v>4.6</v>
+      </c>
+      <c r="J54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55">
+        <v>7.1</v>
+      </c>
+      <c r="I55">
+        <v>6.1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56">
+        <v>7.1</v>
+      </c>
+      <c r="I56">
+        <v>6.1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57">
+        <v>7.1</v>
+      </c>
+      <c r="I57">
+        <v>6.1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58">
+        <v>12.5</v>
+      </c>
+      <c r="G58">
+        <v>10.1</v>
+      </c>
+      <c r="H58">
+        <v>9.1</v>
+      </c>
+      <c r="I58">
+        <v>8.1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59">
+        <v>9.5</v>
+      </c>
+      <c r="G59">
+        <v>5.1</v>
+      </c>
+      <c r="H59">
+        <v>4.9</v>
+      </c>
+      <c r="I59">
+        <v>4.6</v>
+      </c>
+      <c r="J59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60">
+        <v>9.5</v>
+      </c>
+      <c r="G60">
+        <v>5.1</v>
+      </c>
+      <c r="H60">
+        <v>4.9</v>
+      </c>
+      <c r="I60">
+        <v>4.6</v>
+      </c>
+      <c r="J60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>0.1</v>
+      </c>
+      <c r="H61">
+        <v>0.1</v>
+      </c>
+      <c r="I61">
+        <v>0.1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+      <c r="G62">
+        <v>0.1</v>
+      </c>
+      <c r="H62">
+        <v>0.1</v>
+      </c>
+      <c r="I62">
+        <v>0.1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+      <c r="G63">
+        <v>0.1</v>
+      </c>
+      <c r="H63">
+        <v>0.1</v>
+      </c>
+      <c r="I63">
+        <v>0.1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64">
+        <v>18.5</v>
+      </c>
+      <c r="G64">
+        <v>6.1</v>
+      </c>
+      <c r="H64">
+        <v>5.6</v>
+      </c>
+      <c r="I64">
+        <v>5.1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65">
+        <v>0.5</v>
+      </c>
+      <c r="G65">
+        <v>0.1</v>
+      </c>
+      <c r="H65">
+        <v>0.1</v>
+      </c>
+      <c r="I65">
+        <v>0.1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66">
+        <v>18.5</v>
+      </c>
+      <c r="G66">
+        <v>6.1</v>
+      </c>
+      <c r="H66">
+        <v>5.6</v>
+      </c>
+      <c r="I66">
+        <v>5.1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67">
+        <v>0.5</v>
+      </c>
+      <c r="G67">
+        <v>0.1</v>
+      </c>
+      <c r="H67">
+        <v>0.1</v>
+      </c>
+      <c r="I67">
+        <v>0.1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68">
+        <v>18.5</v>
+      </c>
+      <c r="G68">
+        <v>6.1</v>
+      </c>
+      <c r="H68">
+        <v>5.6</v>
+      </c>
+      <c r="I68">
+        <v>5.1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
